--- a/Logs/Seitsmes nädal.xlsx
+++ b/Logs/Seitsmes nädal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\IT-arendus2---Original\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEE6586-9253-43B6-8A9F-9932069EB08A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE43D670-D327-4F24-A4E9-730EF6C54542}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -78,7 +78,7 @@
     <t>Marko Jõgi</t>
   </si>
   <si>
-    <t>MVC</t>
+    <t>Razor</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="36">
-        <v>43535</v>
+        <v>43538</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>43476</v>
       </c>
       <c r="C7" s="6">
         <v>0.66666666666666663</v>
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5">
-        <v>12</v>
+        <v>43477</v>
       </c>
       <c r="C8" s="6">
         <v>0.75</v>
@@ -981,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="21">
-        <v>13</v>
+        <v>43478</v>
       </c>
       <c r="C9" s="6">
         <v>0.65277777777777779</v>
@@ -1007,15 +1007,24 @@
       <c r="A10" s="17">
         <v>4</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="5">
+        <v>43479</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="4">
+        <v>15</v>
+      </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105.00000000000006</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1025,6 +1034,7 @@
       <c r="A11" s="17">
         <v>4</v>
       </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
@@ -1032,9 +1042,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="8"/>
@@ -1051,9 +1059,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="8"/>
@@ -1070,9 +1076,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="8"/>
@@ -1089,9 +1093,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="8"/>
@@ -1107,9 +1109,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="8"/>
@@ -1124,7 +1124,7 @@
       <c r="E16" s="28"/>
       <c r="F16" s="19">
         <f>SUM(F7:F15)</f>
-        <v>599.99999999999989</v>
+        <v>705</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="15"/>

--- a/Logs/Seitsmes nädal.xlsx
+++ b/Logs/Seitsmes nädal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\IT-arendus2---Original\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE43D670-D327-4F24-A4E9-730EF6C54542}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEE6586-9253-43B6-8A9F-9932069EB08A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -78,7 +78,7 @@
     <t>Marko Jõgi</t>
   </si>
   <si>
-    <t>Razor</t>
+    <t>MVC</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="36">
-        <v>43538</v>
+        <v>43535</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>43476</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6">
         <v>0.66666666666666663</v>
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5">
-        <v>43477</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6">
         <v>0.75</v>
@@ -981,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="21">
-        <v>43478</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>0.65277777777777779</v>
@@ -1007,24 +1007,15 @@
       <c r="A10" s="17">
         <v>4</v>
       </c>
-      <c r="B10" s="5">
-        <v>43479</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E10" s="4">
-        <v>15</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>105.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1034,7 +1025,6 @@
       <c r="A11" s="17">
         <v>4</v>
       </c>
-      <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
@@ -1042,7 +1032,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="8"/>
@@ -1059,7 +1051,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="8"/>
@@ -1076,7 +1070,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="8"/>
@@ -1093,7 +1089,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="8"/>
@@ -1109,7 +1107,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="8"/>
@@ -1124,7 +1124,7 @@
       <c r="E16" s="28"/>
       <c r="F16" s="19">
         <f>SUM(F7:F15)</f>
-        <v>705</v>
+        <v>599.99999999999989</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="15"/>

--- a/Logs/Seitsmes nädal.xlsx
+++ b/Logs/Seitsmes nädal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\IT-arendus2---Original\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEE6586-9253-43B6-8A9F-9932069EB08A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC92851-1143-44FD-9599-85B189291630}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -78,7 +78,10 @@
     <t>Marko Jõgi</t>
   </si>
   <si>
-    <t>MVC</t>
+    <t>Razor</t>
+  </si>
+  <si>
+    <t>Praktikum</t>
   </si>
 </sst>
 </file>
@@ -821,7 +824,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="36">
-        <v>43535</v>
+        <v>43541</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
@@ -931,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>43535</v>
       </c>
       <c r="C7" s="6">
         <v>0.66666666666666663</v>
@@ -956,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5">
-        <v>12</v>
+        <v>43536</v>
       </c>
       <c r="C8" s="6">
         <v>0.75</v>
@@ -981,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="21">
-        <v>13</v>
+        <v>43537</v>
       </c>
       <c r="C9" s="6">
         <v>0.65277777777777779</v>
@@ -1007,49 +1010,71 @@
       <c r="A10" s="17">
         <v>4</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="5">
+        <v>43538</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="4">
+        <v>15</v>
+      </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105.00000000000006</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="21">
+        <v>43539</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E11" s="23"/>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.999999999999972</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="23"/>
+      <c r="A12" s="17">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43541</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(D12-C12)*24*60 - E12</f>
+        <v>239.99999999999994</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>15</v>
@@ -1070,9 +1095,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="8"/>
@@ -1089,9 +1112,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="8"/>
@@ -1107,9 +1128,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="8"/>
@@ -1124,7 +1143,7 @@
       <c r="E16" s="28"/>
       <c r="F16" s="19">
         <f>SUM(F7:F15)</f>
-        <v>599.99999999999989</v>
+        <v>975</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="15"/>
